--- a/HW7/hw7.xlsx
+++ b/HW7/hw7.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericgustin/OneDrive - Gonzaga University/CPSC 223-01/vm-share/CPSC223/HW7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericgustin/OneDrive - Gonzaga University/CPSC 223-01/vm-share/CPSC223/ComputerScience223/HW7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B86EDB3F-4356-514F-8D7C-1FEB8E6B1E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9E50968-8A74-C84D-89F0-D726B8E213D1}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{B86EDB3F-4356-514F-8D7C-1FEB8E6B1E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{355B643E-6548-FD45-9C53-96F6250212D8}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{734706A1-63A1-E548-B108-50869EF53AB2}"/>
+    <workbookView xWindow="3260" yWindow="14020" windowWidth="20760" windowHeight="19800" xr2:uid="{734706A1-63A1-E548-B108-50869EF53AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>Insert Average</t>
   </si>
@@ -62,11 +62,38 @@
   <si>
     <t>rand-50k</t>
   </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>HW4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -219,17 +246,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,6 +276,1483 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HW7 Hash</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Table Function Run-Time (us) vs Sample Size of Random Data Set</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>rand-10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rand-20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rand-30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rand-40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rand-50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56413333333333326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80169999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45061100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69166666666666676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58162666666666674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1370-AF4E-A7A7-5A63ACC56B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remove Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>rand-10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rand-20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rand-30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rand-40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rand-50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.166666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8333333333333335E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1370-AF4E-A7A7-5A63ACC56B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Find Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>rand-10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rand-20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rand-30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rand-40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rand-50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8333333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.966666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.166666666666667E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1370-AF4E-A7A7-5A63ACC56B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Range Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>rand-10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rand-20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rand-30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rand-40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rand-50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6705.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11921.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17128.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26750.666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1370-AF4E-A7A7-5A63ACC56B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>rand-10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rand-20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rand-30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rand-40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rand-50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5222.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9519.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12560.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17164.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1370-AF4E-A7A7-5A63ACC56B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660163967"/>
+        <c:axId val="660165599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660163967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (10,000s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660165599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="660165599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (micro seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660163967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDB12BF-59B6-BD4B-9BFC-6D968C16AE1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,86 +2052,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B379AC91-3E6A-9A4E-8E80-AFAB4DB74C9A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17" thickBot="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:13" ht="17" thickTop="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="6">
+        <f>(0.5851+0.6242+0.4831)/3</f>
+        <v>0.56413333333333326</v>
+      </c>
+      <c r="C2" s="7">
+        <f>(0.7623+0.8253+0.8175)/3</f>
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.45061100000000004</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.58162666666666674</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.12665000000000001</v>
+      </c>
+      <c r="K2" s="11">
+        <v>9.0466699999999997E-2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.1618</v>
+      </c>
+      <c r="M2" s="11">
+        <v>8.5980000000000001E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="8">
+        <f>(0.0125+0.0095+0)/3</f>
+        <v>7.3333333333333332E-3</v>
+      </c>
+      <c r="C3" s="9">
+        <f>(0.002+0.001+0.0125)/3</f>
+        <v>5.1666666666666666E-3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.166666666666667E-3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.8333333333333335E-3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>305.67200000000003</v>
+      </c>
+      <c r="J3" s="13">
+        <v>639.72500000000002</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1024.75</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1405.223</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1722.26</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="8">
+        <f>(0.012+0.002+0.0065)/3</f>
+        <v>6.8333333333333336E-3</v>
+      </c>
+      <c r="C4" s="9">
+        <f>(0.01+0.0015+0.0125)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5.3333333333333332E-3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.966666666666667E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3.166666666666667E-3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>116.166</v>
+      </c>
+      <c r="J4" s="13">
+        <v>226.637</v>
+      </c>
+      <c r="K4" s="13">
+        <v>327.93</v>
+      </c>
+      <c r="L4" s="13">
+        <v>429.94200000000001</v>
+      </c>
+      <c r="M4" s="13">
+        <v>547.59500000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="8">
+        <f>(5098+10375+4644)/3</f>
+        <v>6705.666666666667</v>
+      </c>
+      <c r="C5" s="9">
+        <f>(11709+12005+12051)/3</f>
+        <v>11921.666666666666</v>
+      </c>
+      <c r="D5" s="9">
+        <v>17128.333333333332</v>
+      </c>
+      <c r="E5" s="9">
+        <v>21655</v>
+      </c>
+      <c r="F5" s="9">
+        <v>26750.666666666668</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="12">
+        <v>601</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1859</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2276</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3889</v>
+      </c>
+      <c r="M5" s="13">
+        <v>4470</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="8">
+        <f>(3886+3889+7893)/3</f>
+        <v>5222.666666666667</v>
+      </c>
+      <c r="C6" s="9">
+        <f>(9100+9780+9679)/3</f>
+        <v>9519.6666666666661</v>
+      </c>
+      <c r="D6" s="9">
+        <v>12560.666666666666</v>
+      </c>
+      <c r="E6" s="9">
+        <v>17164.666666666668</v>
+      </c>
+      <c r="F6" s="9">
+        <v>21567</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2602</v>
+      </c>
+      <c r="J6" s="13">
+        <v>7012</v>
+      </c>
+      <c r="K6" s="13">
+        <v>10705</v>
+      </c>
+      <c r="L6" s="13">
+        <v>15749</v>
+      </c>
+      <c r="M6" s="13">
+        <v>19711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" thickBot="1">
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" thickTop="1">
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <f>(0.0332+0.1434+0.0249)/3</f>
+        <v>6.7166666666666666E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <f>0.03125</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K9" s="11">
+        <f>(0.0753+0.0273667)/2</f>
+        <v>5.133335E-2</v>
+      </c>
+      <c r="L9" s="11">
+        <f>(0.02945+0.0326)/2</f>
+        <v>3.1024999999999997E-2</v>
+      </c>
+      <c r="M9" s="11">
+        <f>0.0256</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="H10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <f>(56.5625+56.4655)/2</f>
+        <v>56.513999999999996</v>
+      </c>
+      <c r="J10" s="13">
+        <f>120.195</f>
+        <v>120.19499999999999</v>
+      </c>
+      <c r="K10" s="13">
+        <f>177.776</f>
+        <v>177.77600000000001</v>
+      </c>
+      <c r="L10" s="13">
+        <f>245.416</f>
+        <v>245.416</v>
+      </c>
+      <c r="M10" s="13">
+        <f>296.512</f>
+        <v>296.512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="H11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="12">
+        <f>(61.522+61.469)/2</f>
+        <v>61.4955</v>
+      </c>
+      <c r="J11" s="13">
+        <f>121.471</f>
+        <v>121.471</v>
+      </c>
+      <c r="K11" s="13">
+        <f>(177.515+172.253)/2</f>
+        <v>174.88399999999999</v>
+      </c>
+      <c r="L11" s="13">
+        <f>223.891</f>
+        <v>223.89099999999999</v>
+      </c>
+      <c r="M11" s="13">
+        <v>283.70699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="H12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="12">
+        <f>(752+801+844)/3</f>
+        <v>799</v>
+      </c>
+      <c r="J12" s="13">
+        <f>(2020+1965)/2</f>
+        <v>1992.5</v>
+      </c>
+      <c r="K12" s="13">
+        <f>(2442+2355)/2</f>
+        <v>2398.5</v>
+      </c>
+      <c r="L12" s="13">
+        <f>3900</f>
+        <v>3900</v>
+      </c>
+      <c r="M12" s="13">
+        <f>(4091+4160)/2</f>
+        <v>4125.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="H13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12">
+        <f>(2673+2852+2760)/3</f>
+        <v>2761.6666666666665</v>
+      </c>
+      <c r="J13" s="13">
+        <f>(7215+7010)/2</f>
+        <v>7112.5</v>
+      </c>
+      <c r="K13" s="13">
+        <f>(11396+10978)/2</f>
+        <v>11187</v>
+      </c>
+      <c r="L13" s="13">
+        <f>16043</f>
+        <v>16043</v>
+      </c>
+      <c r="M13" s="13">
+        <f>(20127+20948)/2</f>
+        <v>20537.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" thickBot="1">
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" thickTop="1">
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>28.3</v>
+      </c>
+      <c r="J16" s="11">
+        <v>54.866</v>
+      </c>
+      <c r="K16" s="11">
+        <v>84.340199999999996</v>
+      </c>
+      <c r="L16" s="11">
+        <v>106.19199999999999</v>
+      </c>
+      <c r="M16" s="11">
+        <v>136.51400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13">
+      <c r="H17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>46.665999999999997</v>
+      </c>
+      <c r="J17" s="13">
+        <v>97.32</v>
+      </c>
+      <c r="K17" s="13">
+        <v>152.196</v>
+      </c>
+      <c r="L17" s="13">
+        <v>199.834</v>
+      </c>
+      <c r="M17" s="13">
+        <v>260.62900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13">
+      <c r="H18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="12">
+        <f>(0.003+0.02+0.0315)/3</f>
+        <v>1.8166666666666668E-2</v>
+      </c>
+      <c r="J18" s="13">
+        <f>(0.024+0.005+0.024)/3</f>
+        <v>1.7666666666666667E-2</v>
+      </c>
+      <c r="K18" s="13">
+        <f>(0.0145+0.0395+0.014)/3</f>
+        <v>2.2666666666666668E-2</v>
+      </c>
+      <c r="L18" s="13">
+        <f>(0.0415+0.023+0.0145)/3</f>
+        <v>2.6333333333333334E-2</v>
+      </c>
+      <c r="M18" s="13">
+        <f>(0.0075+0.0355+0.0155)/3</f>
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="H19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12">
+        <f>(675+669)/2</f>
+        <v>672</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2057</v>
+      </c>
+      <c r="K19" s="13">
+        <v>2646</v>
+      </c>
+      <c r="L19" s="13">
+        <v>4233</v>
+      </c>
+      <c r="M19" s="13">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13">
+      <c r="H20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="12">
+        <v>330</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1204</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1590</v>
+      </c>
+      <c r="L20" s="13">
+        <v>2490</v>
+      </c>
+      <c r="M20" s="13">
+        <v>2801.3330000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" ht="17" thickBot="1">
+      <c r="H22" s="3"/>
+      <c r="I22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" ht="17" thickTop="1">
+      <c r="H23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f>(0.5851+0.6242+0.4831)/3</f>
+        <v>0.56413333333333326</v>
+      </c>
+      <c r="J23" s="7">
+        <f>(0.7623+0.8253+0.8175)/3</f>
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.45061100000000004</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.58162666666666674</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13">
+      <c r="H24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <f>(0.0125+0.0095+0)/3</f>
+        <v>7.3333333333333332E-3</v>
+      </c>
+      <c r="J24" s="9">
+        <f>(0.002+0.001+0.0125)/3</f>
+        <v>5.1666666666666666E-3</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2.166666666666667E-3</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M24" s="9">
+        <v>2.8333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="H25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="8">
+        <f>(0.012+0.002+0.0065)/3</f>
+        <v>6.8333333333333336E-3</v>
+      </c>
+      <c r="J25" s="9">
+        <f>(0.01+0.0015+0.0125)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="K25" s="9">
+        <v>5.3333333333333332E-3</v>
+      </c>
+      <c r="L25" s="9">
+        <v>3.966666666666667E-2</v>
+      </c>
+      <c r="M25" s="9">
+        <v>3.166666666666667E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="8">
+        <f>(5098+10375+4644)/3</f>
+        <v>6705.666666666667</v>
+      </c>
+      <c r="J26" s="9">
+        <f>(11709+12005+12051)/3</f>
+        <v>11921.666666666666</v>
+      </c>
+      <c r="K26" s="9">
+        <v>17128.333333333332</v>
+      </c>
+      <c r="L26" s="9">
+        <v>21655</v>
+      </c>
+      <c r="M26" s="9">
+        <v>26750.666666666668</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13">
+      <c r="H27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8">
+        <f>(3886+3889+7893)/3</f>
+        <v>5222.666666666667</v>
+      </c>
+      <c r="J27" s="9">
+        <f>(9100+9780+9679)/3</f>
+        <v>9519.6666666666661</v>
+      </c>
+      <c r="K27" s="9">
+        <v>12560.666666666666</v>
+      </c>
+      <c r="L27" s="9">
+        <v>17164.666666666668</v>
+      </c>
+      <c r="M27" s="9">
+        <v>21567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;CHW7
+</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>